--- a/public/template/RKL Template.xlsx
+++ b/public/template/RKL Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amdalnet\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perubahan_pl\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D18179E-AD47-49E2-AF04-C49E27516B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A99CF3-8269-4A2D-A91D-A266F1D8685A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CB3AB8C-A259-4370-90B7-88262AE35179}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Tahap Kegiatan</t>
-  </si>
-  <si>
     <t>Jenis DPH</t>
   </si>
   <si>
@@ -61,6 +58,10 @@
   </si>
   <si>
     <t>Institusi Pengelolaan Lingkungan Hidup</t>
+  </si>
+  <si>
+    <t>Tahap Kegiatan
+(Pra Konstruksi/Konstruksi/Operasi/Pasca Operasi)</t>
   </si>
 </sst>
 </file>
@@ -418,12 +419,12 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.21875" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -434,33 +435,33 @@
     <col min="9" max="9" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/RKL Template.xlsx
+++ b/public/template/RKL Template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perubahan_pl\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A99CF3-8269-4A2D-A91D-A266F1D8685A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CB3AB8C-A259-4370-90B7-88262AE35179}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Jenis DPH</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dampak Lingkungan yang Dikelola </t>
   </si>
   <si>
@@ -62,12 +58,16 @@
   <si>
     <t>Tahap Kegiatan
 (Pra Konstruksi/Konstruksi/Operasi/Pasca Operasi)</t>
+  </si>
+  <si>
+    <t>Jenis DPH
+(Penting/Lainnya)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,53 +415,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C67A2B-899D-4041-8FB1-EB7AA9ABF3A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.21875" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/RKL Template.xlsx
+++ b/public/template/RKL Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perubahan_pl\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD349A-2504-4790-861A-1417CEB31A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -67,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,27 +407,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>

--- a/public/template/RKL Template.xlsx
+++ b/public/template/RKL Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perubahan_pl\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD349A-2504-4790-861A-1417CEB31A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1B0D9B-6133-41B6-A23C-00CDAC54013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,6 +457,14 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1000" xr:uid="{170DD8AC-05C7-4978-B69C-923568307E08}">
+      <formula1>"Pra Konstruksi, Konstruksi, Operasi, Pasca Operasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1000" xr:uid="{70B7DA44-AD57-4A75-9855-7814325A3CF3}">
+      <formula1>"Penting,Lainnya"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>